--- a/DATA/IsoData/STERIsoData.xlsx
+++ b/DATA/IsoData/STERIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">412f4d90-4fc7-432d-8ca3-bdae5ac99c55</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">642c0b5e-f697-40df-b306-be5a6c5359af</t>
   </si>
   <si>
     <t xml:space="preserve">STER.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165715Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21888c16-bd6b-4a23-9315-68efdf77f6e8</t>
+    <t xml:space="preserve">20210112T154153Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26e60db6-7df9-4d46-8b63-11f50f68bb3b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20181010.1102</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000051347</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170630Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">505a96a1-74cb-4f91-ba40-f1c5c5a11440</t>
+    <t xml:space="preserve">20210112T154740Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23bde38d-9cc3-47c8-a0ee-87c2b477fad0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20181106.1013</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000051139</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170354Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2b7154af-7b7f-4ff3-ba47-41a0a41a1b39</t>
+    <t xml:space="preserve">20210112T154529Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a11c7d70-9f91-4fd1-98ff-799156bdfc65</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20181119.1019</t>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">A00000051146</t>
   </si>
   <si>
-    <t xml:space="preserve">8b6d4b84-cddc-46d2-8433-d084140c2b1d</t>
+    <t xml:space="preserve">4bd58bb4-5515-4829-a1dc-f6b537add156</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20181204.1033</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000051156</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170123Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b40d071a-f0ec-4d63-b749-85d64a106f7c</t>
+    <t xml:space="preserve">20210112T154157Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1eb9fe21-b62e-42d8-9503-f48eac74ecb3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190425.1139</t>
@@ -158,10 +164,10 @@
     <t xml:space="preserve">A00000090110</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163721Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">358a1162-f775-46ca-bfc3-4f3e83071a98</t>
+    <t xml:space="preserve">20210112T161005Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4527a0c6-fd7a-4355-8301-7984249a19e8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190508.1024</t>
@@ -173,10 +179,10 @@
     <t xml:space="preserve">A00000089878</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163550Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9bb8d58-2c69-4d1d-aba2-612f3470c13e</t>
+    <t xml:space="preserve">20210112T161141Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a32f30b3-ae0b-4ef6-a2e6-0df660501118</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190522.0738</t>
@@ -188,7 +194,7 @@
     <t xml:space="preserve">A00000051419</t>
   </si>
   <si>
-    <t xml:space="preserve">9f27d91b-cd84-4ad0-b1d1-6c4df6e37dbc</t>
+    <t xml:space="preserve">c80ae239-ef1e-4121-8e83-faa5d4285239</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190603.1207</t>
@@ -200,10 +206,10 @@
     <t xml:space="preserve">A00000051420</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165758Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6e59a8d2-9a3b-4524-aee1-c5edeae268cf</t>
+    <t xml:space="preserve">20210112T153414Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f34bf20c-cb1e-4ed9-a311-c2cf32fac6f1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190619.1102</t>
@@ -215,7 +221,7 @@
     <t xml:space="preserve">A00000090723</t>
   </si>
   <si>
-    <t xml:space="preserve">18def10d-c94c-430e-8dcc-f6ab322b4f1d</t>
+    <t xml:space="preserve">af78e4ee-500f-48ea-89b7-0a5f40ceaa35</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190701.1045</t>
@@ -227,10 +233,10 @@
     <t xml:space="preserve">A00000091102</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165448Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9163e7eb-5cc8-4afd-a1cb-3c575c65e6ce</t>
+    <t xml:space="preserve">20210112T153514Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883a194c-e707-410f-a4f8-80bd3b6b2d7c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190717.1042</t>
@@ -242,7 +248,7 @@
     <t xml:space="preserve">A00000091022</t>
   </si>
   <si>
-    <t xml:space="preserve">550003cc-475c-426b-9e48-b3c605607bf2</t>
+    <t xml:space="preserve">e2f6ec52-a6f3-423a-a0ce-7de44263d240</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190730.1015</t>
@@ -254,7 +260,7 @@
     <t xml:space="preserve">A00000091555</t>
   </si>
   <si>
-    <t xml:space="preserve">64633ff9-ab6a-4af1-8ba8-8acbc2600c14</t>
+    <t xml:space="preserve">062c778e-179d-4d3c-8c77-f19eaa5198ae</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190814.1103</t>
@@ -266,10 +272,10 @@
     <t xml:space="preserve">A00000091581</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165736Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df180de3-dd2b-4846-905f-aaf68307f02c</t>
+    <t xml:space="preserve">20210112T153405Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23faca0c-84e1-49b3-b056-8abdef78c8b7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190827.1045</t>
@@ -281,7 +287,7 @@
     <t xml:space="preserve">A00000092259</t>
   </si>
   <si>
-    <t xml:space="preserve">95241e4a-fafe-47bb-bb06-aa3788421b30</t>
+    <t xml:space="preserve">b2d70b7a-f580-4e48-bd95-714f13a6cf73</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190910.1028</t>
@@ -293,10 +299,10 @@
     <t xml:space="preserve">A00000092377</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170656Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d5dd63b2-ba54-4f6a-8930-94371783fd03</t>
+    <t xml:space="preserve">20210112T154248Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">853b63b0-a5d1-47a9-9852-e472fd1e1e41</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20190925.1130</t>
@@ -308,7 +314,7 @@
     <t xml:space="preserve">A00000092247</t>
   </si>
   <si>
-    <t xml:space="preserve">4f9dc6f6-8869-4eed-ad30-71c4e82c5996</t>
+    <t xml:space="preserve">a64b2f64-5fe2-47b9-9449-7f17ba25f598</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20191009.1122</t>
@@ -320,10 +326,10 @@
     <t xml:space="preserve">A00000093273</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170420Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316e0d56-df2c-4f35-8eff-b977bd01cf95</t>
+    <t xml:space="preserve">20210112T154627Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9c6c7c7a-59d7-4aad-80ae-4d12ef13dc66</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20191111.1328</t>
@@ -335,10 +341,10 @@
     <t xml:space="preserve">A00000089839</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170059Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce7e60d9-450b-4ddc-a35a-5d4854a3a02d</t>
+    <t xml:space="preserve">20210112T154423Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1738558a-92fd-416d-9dae-7a49ef59ca38</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20191218.1115</t>
@@ -350,10 +356,40 @@
     <t xml:space="preserve">A00000089741</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165951Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60c6b28d-7be1-4424-abfb-7154e6456774</t>
+    <t xml:space="preserve">20210112T154434Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1b44f3f-ee90-42da-9b75-9bda6a67b91f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200212.1051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200212.1051.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T164407Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48da4951-f1a6-4ab7-88a7-c940818a6890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200225.1126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200225.1126.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e03ab2ee-b76b-4237-a858-3633d9fc1495</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STER.20200309.1218</t>
@@ -365,7 +401,76 @@
     <t xml:space="preserve">A00000121606</t>
   </si>
   <si>
-    <t xml:space="preserve">20200706T134719Z</t>
+    <t xml:space="preserve">20210112T164245Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaf843b2-7f38-4676-bb06-cebb0162fb31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200706.1344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200706.1344.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T153428Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59706787-b88a-49c0-8a29-800d09b5e252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200716.1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200716.1042.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867e6bba-a059-4bc1-abd5-1536c3578a15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200728.1334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200728.1334.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30b8b212-1f93-4f3c-96f3-271e837381f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200811.1225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200811.1225.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154829Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c99094d8-ffff-42f3-9a64-0e4faec4bbcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200902.1230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STER.20200902.1230.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154741Z</t>
   </si>
 </sst>
 </file>
@@ -703,7 +808,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -757,23 +862,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43355.7708333333</v>
@@ -794,35 +902,38 @@
         <v>0.178</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43370.76875</v>
@@ -843,35 +954,38 @@
         <v>0.185</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43389.8020833333</v>
@@ -892,35 +1006,38 @@
         <v>0.187</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43410.7215277778</v>
@@ -941,35 +1058,38 @@
         <v>0.198</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43423.7256944444</v>
@@ -990,35 +1110,38 @@
         <v>0.148</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43557.7576388889</v>
@@ -1039,35 +1162,38 @@
         <v>0.52</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43580.7430555556</v>
@@ -1088,35 +1214,38 @@
         <v>0.592</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43593.6902777778</v>
@@ -1137,35 +1266,38 @@
         <v>0.08</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43608.0875</v>
@@ -1186,35 +1318,38 @@
         <v>0.139</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43619.7666666667</v>
@@ -1235,35 +1370,38 @@
         <v>0.08</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43635.7152777778</v>
@@ -1284,35 +1422,38 @@
         <v>0.186</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43647.7020833333</v>
@@ -1333,35 +1474,38 @@
         <v>0.153</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43663.7020833333</v>
@@ -1382,35 +1526,38 @@
         <v>0.079</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43676.6951388889</v>
@@ -1431,35 +1578,38 @@
         <v>0.111</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43691.7444444444</v>
@@ -1480,35 +1630,38 @@
         <v>0.186</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43704.7027777778</v>
@@ -1529,35 +1682,38 @@
         <v>0.097</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43718.69375</v>
@@ -1578,35 +1734,38 @@
         <v>0.087</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43733.7347222222</v>
@@ -1627,35 +1786,38 @@
         <v>0.095</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43759.70625</v>
@@ -1676,35 +1838,38 @@
         <v>0.201</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43809.7819444444</v>
@@ -1725,66 +1890,436 @@
         <v>0.134</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>43886.7763888889</v>
+        <v>43857.74375</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>43899.7625</v>
+        <v>43873.74375</v>
       </c>
       <c r="I22" t="n">
-        <v>-12.418</v>
+        <v>-8.095</v>
       </c>
       <c r="J22" t="n">
-        <v>-96.833</v>
+        <v>-79.363</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="L22" t="n">
-        <v>0.063</v>
+        <v>0.144</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43985.75</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="R22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>43873.7486111111</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>43886.7680555556</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-13.213</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-129.156</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>43886.7763888889</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>43899.7625</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-12.418</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-96.833</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>129</v>
+      </c>
+      <c r="R24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>43899.7722222222</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>44018.8222222222</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-4.811</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-61.216</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>44018.8368055556</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>44028.6958333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-6.47</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-43.703</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>44028.7027777778</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>44040.8152777778</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-5.842</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-38.43</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>44040.8166666667</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>44054.7673611111</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-37.298</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>147</v>
+      </c>
+      <c r="R28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>44054.7715277778</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>44076.7708333333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.872</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-26</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>152</v>
+      </c>
+      <c r="R29" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
